--- a/generated_docs/WR_89709840_WeekEnding_072025.xlsx
+++ b/generated_docs/WR_89709840_WeekEnding_072025.xlsx
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 07/30/2025 01:48 PM</t>
+          <t>Report Generated On: 08/16/2025 12:47 AM</t>
         </is>
       </c>
     </row>
@@ -603,7 +603,7 @@
       </c>
       <c r="G8" s="6" t="inlineStr">
         <is>
-          <t>Bryant Murphy</t>
+          <t>BM</t>
         </is>
       </c>
     </row>
@@ -635,7 +635,7 @@
       </c>
       <c r="C10" s="6" t="inlineStr">
         <is>
-          <t>07/20/2025 to 07/20/25</t>
+          <t>07/14/2025 to 07/20/25</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="G13" s="6" t="inlineStr">
         <is>
-          <t>846-1</t>
+          <t>#NO MATCH-3</t>
         </is>
       </c>
     </row>
